--- a/rules.xlsx
+++ b/rules.xlsx
@@ -1,48 +1,252 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speci\OneDrive\Desktop\Codex projet ai\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A4C605-0ADA-4DCD-9293-51FF1C22B380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335CC3B0-DA76-4F9B-9CEF-E958CC7BE073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="1404" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Students must wear proper school uniform at all times.</t>
-  </si>
-  <si>
-    <t>Attendance is mandatory. Missing more than 5 days requires justification.</t>
-  </si>
-  <si>
-    <t>Homework must be submitted before the deadline.</t>
-  </si>
-  <si>
-    <t>Respect teachers, staff, and other students.</t>
-  </si>
-  <si>
-    <t>No phone usage during class unless permitted by the teacher.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>2. Absence and Tardiness
+Parents must inform the administration of their child's absence and provide justification.
+Any absence exceeding three days must be supported by a medical report.
+A student who is late three times may be excluded from the first period and cannot enter class without written permission from the section supervisor. Repeated lateness results in a warning card.
+Students must participate in school activities and trips (spiritual, educational, cultural, etc.).</t>
+  </si>
+  <si>
+    <t>Rosary Sisters Secondary School - Blat/Jbeil. Tel: 09-945190 / 540781.
+ Internal Regulations - Secondary Cycle. 
+Academic Year 2025-2026.
+ Every regulation is established to serve individuals and organize community life in a way that supports the growth of all its members. Therefore, the Rosary Sisters organize  communal life in their schools based on their mission and in collaboration with the educational and administrative teams, to provide an approriate environment for productive work and for building independent personalities in students. This goal requires setting clear rules so that everyone knows their rights and duties.</t>
+  </si>
+  <si>
+    <t>1. School hours
+School starts at 7:35 a.m. and ends at 2:40 p.m.
+Students must respect the morning schedule in order to participate in morning prayer.
+At the end of the school day, students must leave promptly and go directly home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Permission to Leave
+Students may not leave school during school hours.
+Exceptional leave requires a request from parents (verbally or in writing).
+Parents must pick up their child from the section office.
+Parents are asked not to schedule medical appointments during school hours.  </t>
+  </si>
+  <si>
+    <t>4. Academic Work
+Students must learn, participate, ask questions if they do not understand, listen carefully, and be fully attentive.
+Students must sit properly, raise their hand to speak, and wait for the teacher's permission
+Students must complete homework regularly and bring all required materials
+Students are responsible for lessons missed during absences.
+Students stand when an adult enters the classroom as a sign of respect.
+Students must leave their classroom clean and organized.
+Parents must follow their child's academic progress and sign school communications.
+Parents must attend meetings when invited by the school.</t>
+  </si>
+  <si>
+    <t>5. Exams and Promotion
+Students are evaluated four times per year: 2 tests and 2 exams (2 TQ and 2 exams).
+Absence from exams is only allowed in extreme cases with a medical report.
+Cheating results in a grade of zero.
+Promotion requires a minimum average of 10/20.
+Students scoring below 12/20 in scientific subjects may not choose a scientific track in secondary classes.
+No make-up exams are granted; results are either pass or fail.</t>
+  </si>
+  <si>
+    <t>6. eSchool Application
+The school uses the eSchool app for agendas and communication.
+Parents must download and check it regularly.
+Communication with administration is via the school phone or email: cs.jbeil@rosaire.edu.lb</t>
+  </si>
+  <si>
+    <t>7. School Uniform
+Uniform is mandatory during school hours and trips.
+Shoes: black, brown, navy, gray, or white.
+Winter: navy pants, shirt, burgundy sweater or navy jacket, and coat.
+Summer: girls wear a jumper with a shirt; boys wear navy school pants with a polo.
+Sportswear is only for sports day; no shorts except official school shorts.
+Not allowed:
+Sandals
+Ripped, tight (fuseau), or jeans pants
+Makeup, nail polish, jewelry (especially gold), gel, necklaces, earrings
+Hair must be tied back.
+Boys must shave regularly and keep hort, neat hair.</t>
+  </si>
+  <si>
+    <t>8. Movement and Break Time
+Students return to class calmly after the first bell.
+Permission is required from teacher and supervisor before going to the restroom.
+Students remain in class between periods.
+During break, students cannot leave the playground or remain in classrooms without official permission.
+Maintaining school cleanliness is a requirement for all</t>
+  </si>
+  <si>
+    <t>9. Behavior:
+Every student has the right to express their opinion respectfully and to be heard in any misunderstanding or conflict.
+Students are required to use language and behavior that reflect respect for themselves and others.
+Students must avoid any violation of rules, bullying, disrespect, or violence toward their peers; any such actions will lead to necessary measures, which may include suspension from school at the end of the academic year.
+In case of any conflict between students, it is recommended to refer to the class coordinator or principal, who have the authority to resolve disputes while ensuring the rights and respect of all.
+Students are responsible for taking care of school equipment; any violation requires repairing or covering the cost of damage.
+Students must keep the areas they occupy clean.
+Eating, drinking, or chewing gum in class is strictly prohibited on school premises.
+For safety, students are not allowed to drive their personal vehicles to school.
+Each person is responsible for their personal belongings; the school is not responsible for theft, loss, or damage. Parents are advised to give students only the daily amount of money necessary for purchases at the school store.
+Students must not bring valuables or large amounts of money to school.
+Bringing mobile phones, electronic games, or smartwatches is strictly prohibited unless necessary. Parents must notify the administration, and the item is kept at school under administration care, which is not responsible for it. If a student is found with a phone, it is confiscated for one week; repeated violations result in confiscation until the end of the school year.
+Students must not bring or use dangerous or illegal items such as weapons, knives, sharp tools, laser pointers, fireworks, playing cards, or any type of tobacco. Any student selling or using illegal materials is considered guilty and will bear the consequences; trading in any other prohibited item is also forbidden.
+Parents must inform the class coordinator of any significant changes in the student’s life that may affect behavior (e.g., illness of a parent, travel, family separation).
+The school is a place for acquiring knowledge and culture, not for political slogans or debates; therefore, such topics must not be discussed on campus.</t>
+  </si>
+  <si>
+    <t>10- Health Care:
+Medical reports excusing students from physical activity are reviewed by the nurse and school doctor, who decide with the class coordinator.
+Students may only go to the nurse during class for urgent cases, and only with the principal’s permission.
+In case of infectious illness, parents must inform the class coordinator immediately, and the student must stay home. Upon return, a medical report confirming recovery is required.
+For sudden illness, parents must inform the class coordinator directly.
+In accidents, the nurse contacts the parents to accompany the student to the hospital, along with school insurance papers.
+If a student falls ill at school, the nurse calls the parents to pick up their child.
+Students must leave their medications with the nurse and not share or exchange medicines with others.
+Students must maintain personal hygiene: clean nails, hair, clothing, etc.
+Students should maintain a regular sleep schedule of 8–9 hours per night and avoid screens before bed, as this directly affects concentration and performance in class.
+Each student must bring personal items for bathroom use (tissues, scented tissues, etc.) and avoid borrowing from others.</t>
+  </si>
+  <si>
+    <t>11- Students with Learning Difficulties:
+In case of learning difficulties:
+Teachers fill out a report (fiche de signalement) on the student’s academic or behavioral performance.
+The specialist meets the student in her office to verify teacher observations. If difficulties are minor, recommendations are provided to the student, parents, and teachers. If difficulties are severe, the student is referred to an external specialist with school team follow-up.
+The school considers the specialist’s recommendations and implements them as much as possible.
+Parents must sign a refusal form if they reject external specialist follow-up, accepting responsibility for any consequences.
+Files of some students with learning difficulties may be reviewed to request assistance during official exams.</t>
+  </si>
+  <si>
+    <t>12- Disciplinary System:
+Important notes:
+Students have the right to explain and defend their behavior.
+The student’s case is reviewed with the psychologist.
+Punishment is individual, not collective, aiming to help the student take responsibility for actions.
+Students are held accountable for rule violations based on severity.
+The class administration sends parents a message via the eSchool app notifying them of any student violation.
+After three violations, the student receives a warning card, sent to parents for signature.
+After two warning cards, parents are called to discuss the student’s behavior and academic situation.
+Any violation after the warning cards results in a one-day suspension in school, during which the student completes academic tasks assigned by the administration.
+Further violations require the student to change schools at the end of the year.
+Some serious violations require immediate parental involvement: unethical behavior, leaving school without permission, bringing prohibited items, violence.</t>
+  </si>
+  <si>
+    <t>13- Relationship with Parents:
+Cooperation between parents and all school staff (administration, teachers, employees) ensures an environment that supports student growth and personal development.
+Mutual respect governs the relationship between parents and the school; school staff may not speak inappropriately to or about parents.
+Parents are expected to treat school staff respectfully; violations may result in the student’s removal from school.
+Parents must schedule meetings during school hours and through official school contact methods only.
+Modesty is required within the school campus.</t>
+  </si>
+  <si>
+    <t>Conclusion:
+This system aims to foster a sense of responsibility in our students. Education is a shared responsibility to prepare a healthy and virtuous society. The implementation of this system is effective throughout the academic year once sent via the eSchool app, as stated in Article 6 of the system.</t>
+  </si>
+  <si>
+    <t>ARTICLE_1</t>
+  </si>
+  <si>
+    <t>ARTICLE_2</t>
+  </si>
+  <si>
+    <r>
+      <t>ARTICLE_</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>ARTICLE_4</t>
+  </si>
+  <si>
+    <t>ARTICLE_5</t>
+  </si>
+  <si>
+    <t>ARTICLE_6</t>
+  </si>
+  <si>
+    <t>ARTICLE_7</t>
+  </si>
+  <si>
+    <t>ARTICLE_8</t>
+  </si>
+  <si>
+    <t>ARTICLE_9</t>
+  </si>
+  <si>
+    <t>ARTICLE_10</t>
+  </si>
+  <si>
+    <t>ARTICLE_11</t>
+  </si>
+  <si>
+    <t>ARTICLE_12</t>
+  </si>
+  <si>
+    <t>ARTICLE_13</t>
+  </si>
+  <si>
+    <t>CONCLUSION</t>
+  </si>
+  <si>
+    <t>DEFENITION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -70,14 +274,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -100,44 +307,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -164,14 +371,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -198,6 +406,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -209,205 +418,280 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="163" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>